--- a/2019 Happiness/Unprocessed Data/Democracy_Index_2019.xlsx
+++ b/2019 Happiness/Unprocessed Data/Democracy_Index_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcc\Documents\GW Analytics Program\Group_Project\Data\New Data\2019 Happiness\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/63baac619ed83949/Desktop/personalrepo/Modules/Module20--Project/Final-Project/2019 Happiness/Unprocessed Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9E2A72-0157-4F5E-8B68-9615E4B4E973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8ED3089E-5D08-4C3D-A4E9-05458DE6B78C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{8ED3089E-5D08-4C3D-A4E9-05458DE6B78C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -916,7 +916,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{940FADBB-41C2-4A91-A69A-7DA78A6396A2}">
   <dimension ref="A1:D1865"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
